--- a/Attestati Corsi di Formazione/report_gen_data/aziende.xlsx
+++ b/Attestati Corsi di Formazione/report_gen_data/aziende.xlsx
@@ -132,7 +132,7 @@
     <t>56.29.1 - ATTIVITÀ DEI SERVIZI DI RISTORAZIONE</t>
   </si>
   <si>
-    <t>asd</t>
+    <t>sarca</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
   <dimension ref="A1:D14050"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
